--- a/data/glossary/glossary_sgcm_facultycode.xlsx
+++ b/data/glossary/glossary_sgcm_facultycode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce5345e3319cb7d5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce5345e3319cb7d5/Documents/University of Cyberjaya/20260130/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8FFDFA7-155A-4EA6-A5E7-C81BCDDE0A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A8FFDFA7-155A-4EA6-A5E7-C81BCDDE0A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1008980-A3C1-4D91-ABE5-A7D7BB6C0857}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32942DC3-5F7B-488B-A93C-1B701696FBAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="2473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="2690">
   <si>
     <t>Faculty/School Code</t>
   </si>
@@ -44,15 +44,6 @@
     <t>Faculty/School Name</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Org  admin</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>MGUOC001</t>
   </si>
   <si>
@@ -2279,9 +2270,6 @@
     <t>MG117</t>
   </si>
   <si>
-    <t>Erin Chen</t>
-  </si>
-  <si>
     <t>MG071</t>
   </si>
   <si>
@@ -2738,9 +2726,6 @@
     <t>PT333</t>
   </si>
   <si>
-    <t>Bawany Sundraraju</t>
-  </si>
-  <si>
     <t>UOC500a</t>
   </si>
   <si>
@@ -3623,9 +3608,6 @@
     <t>Rekhadevi Panjloo</t>
   </si>
   <si>
-    <t>UOC519</t>
-  </si>
-  <si>
     <t>Nurul Atiqah Zulkafli</t>
   </si>
   <si>
@@ -7367,9 +7349,6 @@
     <t>NOR SYAFIQAH BINTI JALALUDDIN</t>
   </si>
   <si>
-    <t>UOC716</t>
-  </si>
-  <si>
     <t>SAPIAH BINTI RAMAN</t>
   </si>
   <si>
@@ -7455,6 +7434,678 @@
   </si>
   <si>
     <t>Nur Hafizah Binti Abd Munir</t>
+  </si>
+  <si>
+    <t>UOC011d</t>
+  </si>
+  <si>
+    <t>UOC046d</t>
+  </si>
+  <si>
+    <t>UOC050d</t>
+  </si>
+  <si>
+    <t>UOC055d</t>
+  </si>
+  <si>
+    <t>Bawany A/P Sundraraju</t>
+  </si>
+  <si>
+    <t>UOC031d</t>
+  </si>
+  <si>
+    <t>UOC375d</t>
+  </si>
+  <si>
+    <t>UOC374d</t>
+  </si>
+  <si>
+    <t>UOC373d</t>
+  </si>
+  <si>
+    <t>MG081d</t>
+  </si>
+  <si>
+    <t>MG143d</t>
+  </si>
+  <si>
+    <t>PT982</t>
+  </si>
+  <si>
+    <t>PT191d</t>
+  </si>
+  <si>
+    <t>PT1001</t>
+  </si>
+  <si>
+    <t>MG287</t>
+  </si>
+  <si>
+    <t>KASTURI A/P K.KUMARAN</t>
+  </si>
+  <si>
+    <t>MG293</t>
+  </si>
+  <si>
+    <t>KHAIRUL BARIYYAH BINTI KHIRUDDIN</t>
+  </si>
+  <si>
+    <t>UOC728</t>
+  </si>
+  <si>
+    <t>NOR SYAZWANI BINTI NORDIN</t>
+  </si>
+  <si>
+    <t>UOC722</t>
+  </si>
+  <si>
+    <t>MANGGAIAKARASI A/P PERIASAMY</t>
+  </si>
+  <si>
+    <t>UOC724</t>
+  </si>
+  <si>
+    <t>PHELIM YONG VOON CHEN</t>
+  </si>
+  <si>
+    <t>MG266</t>
+  </si>
+  <si>
+    <t>MUHD HILMI IZUDDIN BIN ABD GHAFAR</t>
+  </si>
+  <si>
+    <t>UOC731d</t>
+  </si>
+  <si>
+    <t>NURUL NATASYA BINTI MD DRUS</t>
+  </si>
+  <si>
+    <t>UOC691</t>
+  </si>
+  <si>
+    <t>Nur Fatihah Binti Ronny Sham</t>
+  </si>
+  <si>
+    <t>PT591</t>
+  </si>
+  <si>
+    <t>Mohd Asyraf Ezani Bin Kamarudin</t>
+  </si>
+  <si>
+    <t>MG294</t>
+  </si>
+  <si>
+    <t>Aina Sofea Binti Che Sha’ari</t>
+  </si>
+  <si>
+    <t>Noorzazita Binti Kassim</t>
+  </si>
+  <si>
+    <t>UOC721</t>
+  </si>
+  <si>
+    <t>Lim Wei Liang</t>
+  </si>
+  <si>
+    <t>UOC732</t>
+  </si>
+  <si>
+    <t>DR. NAWIN A/L THARUMARAJAH</t>
+  </si>
+  <si>
+    <t>UOC733</t>
+  </si>
+  <si>
+    <t>MUHAMMAD A'ZMUDDI BIN PAIMAN</t>
+  </si>
+  <si>
+    <t>MG299</t>
+  </si>
+  <si>
+    <t>PANG SIAK WEI</t>
+  </si>
+  <si>
+    <t>MG298</t>
+  </si>
+  <si>
+    <t>MARSYA BINTI MAHATHIR</t>
+  </si>
+  <si>
+    <t>UOC563</t>
+  </si>
+  <si>
+    <t>Ros'aini Paijan</t>
+  </si>
+  <si>
+    <t>MG301</t>
+  </si>
+  <si>
+    <t>NOR IZZATUL ELANIE BINTI MUSTAFAH</t>
+  </si>
+  <si>
+    <t>MG302</t>
+  </si>
+  <si>
+    <t>NITHYASREE A/P TAMILSELVAM</t>
+  </si>
+  <si>
+    <t>UOC734</t>
+  </si>
+  <si>
+    <t>SEE JASMINE</t>
+  </si>
+  <si>
+    <t>MG306</t>
+  </si>
+  <si>
+    <t>Kartiyaini a/p Kandupillai </t>
+  </si>
+  <si>
+    <t>UOC735</t>
+  </si>
+  <si>
+    <t>HADIJAH BINTI AHMAD</t>
+  </si>
+  <si>
+    <t>UOC737</t>
+  </si>
+  <si>
+    <t>Putri Nurain Shazana Binti Megat Nadzruddin</t>
+  </si>
+  <si>
+    <t>UOC738</t>
+  </si>
+  <si>
+    <t>Nagasangari A/P Kunagaratnam</t>
+  </si>
+  <si>
+    <t>MG307</t>
+  </si>
+  <si>
+    <t>NAJIHAH BINTI AHMAT</t>
+  </si>
+  <si>
+    <t>PT983</t>
+  </si>
+  <si>
+    <t>Koh Xiao Fang</t>
+  </si>
+  <si>
+    <t>PT984</t>
+  </si>
+  <si>
+    <t>Marfizul Azuan Bin Marsuki</t>
+  </si>
+  <si>
+    <t>PT985</t>
+  </si>
+  <si>
+    <t>Nabilah Binti Mohd Razif</t>
+  </si>
+  <si>
+    <t>PT986</t>
+  </si>
+  <si>
+    <t>Sharala Subramaniam</t>
+  </si>
+  <si>
+    <t>PT987</t>
+  </si>
+  <si>
+    <t>Subaharthini Selvarajoo</t>
+  </si>
+  <si>
+    <t>PT988</t>
+  </si>
+  <si>
+    <t>Suci Aida Fitri Binti Md Dahhar</t>
+  </si>
+  <si>
+    <t>PT989</t>
+  </si>
+  <si>
+    <t>Arul Selvi A/P Govinda Rachi</t>
+  </si>
+  <si>
+    <t>PT990</t>
+  </si>
+  <si>
+    <t>PT991</t>
+  </si>
+  <si>
+    <t>PT992</t>
+  </si>
+  <si>
+    <t>Noriza Syazlin Binti Mustapha</t>
+  </si>
+  <si>
+    <t>PT993</t>
+  </si>
+  <si>
+    <t>Pheh Kai Shuen</t>
+  </si>
+  <si>
+    <t>PT994</t>
+  </si>
+  <si>
+    <t>See Geok Lan</t>
+  </si>
+  <si>
+    <t>PT995</t>
+  </si>
+  <si>
+    <t>Ashwin Thind A/L Gurmit Singh</t>
+  </si>
+  <si>
+    <t>PT996</t>
+  </si>
+  <si>
+    <t>PT997</t>
+  </si>
+  <si>
+    <t>Firdaus Bin Mukhtar</t>
+  </si>
+  <si>
+    <t>UOC740</t>
+  </si>
+  <si>
+    <t>Shasha Amira Binti Sharifuddin</t>
+  </si>
+  <si>
+    <t>UOC742</t>
+  </si>
+  <si>
+    <t>LUQMAN HAKIM BIN ABU BAKAR</t>
+  </si>
+  <si>
+    <t>PT999</t>
+  </si>
+  <si>
+    <t>PT1000</t>
+  </si>
+  <si>
+    <t>Farah Amna Binti Othman</t>
+  </si>
+  <si>
+    <t>PT1004</t>
+  </si>
+  <si>
+    <t>Jegatheswary A/P Rethinaraj</t>
+  </si>
+  <si>
+    <t>PT1005</t>
+  </si>
+  <si>
+    <t>Ahmad Safuan Bin Muhammad Shahril</t>
+  </si>
+  <si>
+    <t>PT1006</t>
+  </si>
+  <si>
+    <t>Ts. Tengku Shahril Norzaimi Bin Tengku Hariffadzillah</t>
+  </si>
+  <si>
+    <t>PT1007</t>
+  </si>
+  <si>
+    <t>Ts. Husna Adlyna Binti Sidek</t>
+  </si>
+  <si>
+    <t>PT1008</t>
+  </si>
+  <si>
+    <t>Muhamad Arief Lutfi Bin Zainal</t>
+  </si>
+  <si>
+    <t>PT1009</t>
+  </si>
+  <si>
+    <t>Goh Swee Luo</t>
+  </si>
+  <si>
+    <t>PT1010</t>
+  </si>
+  <si>
+    <t>Nursaleha Binti Mohammad Pala</t>
+  </si>
+  <si>
+    <t>Shahril Fahmi Bin Mat Ali</t>
+  </si>
+  <si>
+    <t>UOC731</t>
+  </si>
+  <si>
+    <t>Nurul Natasya Binti Md Drus</t>
+  </si>
+  <si>
+    <t>MG245</t>
+  </si>
+  <si>
+    <t>Kunalan A/L Mahendran</t>
+  </si>
+  <si>
+    <t>PT1012</t>
+  </si>
+  <si>
+    <t>PT1013</t>
+  </si>
+  <si>
+    <t>Lim Maureen</t>
+  </si>
+  <si>
+    <t>PT1014</t>
+  </si>
+  <si>
+    <t>Mohd Naqiuddin Bin Johar</t>
+  </si>
+  <si>
+    <t>TEST1234</t>
+  </si>
+  <si>
+    <t>New Screen Test</t>
+  </si>
+  <si>
+    <t>UOC736</t>
+  </si>
+  <si>
+    <t>Zainab Abdulsalam Attallah</t>
+  </si>
+  <si>
+    <t>TEST12341</t>
+  </si>
+  <si>
+    <t>Newer Screen Test</t>
+  </si>
+  <si>
+    <t>UOC743</t>
+  </si>
+  <si>
+    <t>Muhammad Nur Alif Bin Amir</t>
+  </si>
+  <si>
+    <t>TEST123412</t>
+  </si>
+  <si>
+    <t>26622KD</t>
+  </si>
+  <si>
+    <t>Koustav Das</t>
+  </si>
+  <si>
+    <t>UOC518</t>
+  </si>
+  <si>
+    <t>Che Zuraini Binti Che Ab Rahman</t>
+  </si>
+  <si>
+    <t>UOC675</t>
+  </si>
+  <si>
+    <t>Andik Nuruljannah Binti Bachuk</t>
+  </si>
+  <si>
+    <t>UOC739</t>
+  </si>
+  <si>
+    <t>Veshaaliini Uma Rajeswaran</t>
+  </si>
+  <si>
+    <t>PT748</t>
+  </si>
+  <si>
+    <t>Harsherin Kaur Gurdip Singh</t>
+  </si>
+  <si>
+    <t>PT941</t>
+  </si>
+  <si>
+    <t>Nik Abdul Hakim Bin Nik Abdul Rashid</t>
+  </si>
+  <si>
+    <t>UOC554</t>
+  </si>
+  <si>
+    <t>Tharani Mahalingam</t>
+  </si>
+  <si>
+    <t>PT181</t>
+  </si>
+  <si>
+    <t>Thagirarani AL Muniandy</t>
+  </si>
+  <si>
+    <t>PT503</t>
+  </si>
+  <si>
+    <t>Siti Nurliana Binti Jamalai</t>
+  </si>
+  <si>
+    <t>PT522</t>
+  </si>
+  <si>
+    <t>Mohd Shahdi Bin Ahmad</t>
+  </si>
+  <si>
+    <t>PT523</t>
+  </si>
+  <si>
+    <t>PT524</t>
+  </si>
+  <si>
+    <t>Mariatul Farhana Binti Abdul Manaf</t>
+  </si>
+  <si>
+    <t>PT747</t>
+  </si>
+  <si>
+    <t>Lovina AP Yogarajan</t>
+  </si>
+  <si>
+    <t>PT749</t>
+  </si>
+  <si>
+    <t>Azhar Nizam Bin Hatta</t>
+  </si>
+  <si>
+    <t>PT750</t>
+  </si>
+  <si>
+    <t>Nurul Zulfadhli Bin Mohd</t>
+  </si>
+  <si>
+    <t>PT789</t>
+  </si>
+  <si>
+    <t>Beddan AL Veerasamy</t>
+  </si>
+  <si>
+    <t>PT819</t>
+  </si>
+  <si>
+    <t>Shamini AP Chelliah</t>
+  </si>
+  <si>
+    <t>PT820</t>
+  </si>
+  <si>
+    <t>Siti Noorkhaniza Binti Mohd Zainuddin</t>
+  </si>
+  <si>
+    <t>PT822</t>
+  </si>
+  <si>
+    <t>Chuah Peng Aik</t>
+  </si>
+  <si>
+    <t>PT494d</t>
+  </si>
+  <si>
+    <t>Caril Bin Andi Mansur</t>
+  </si>
+  <si>
+    <t>PT495d</t>
+  </si>
+  <si>
+    <t>Masliza Binti Mohamad Nazar</t>
+  </si>
+  <si>
+    <t>PT496d</t>
+  </si>
+  <si>
+    <t>Bukhari Bin Shafie</t>
+  </si>
+  <si>
+    <t>PT497d</t>
+  </si>
+  <si>
+    <t>Nor Syamiza Binti Ismail</t>
+  </si>
+  <si>
+    <t>PT498d</t>
+  </si>
+  <si>
+    <t>Amrit Kaur AP Bhajan Singh</t>
+  </si>
+  <si>
+    <t>UOC748</t>
+  </si>
+  <si>
+    <t>Devi Subramaniam</t>
+  </si>
+  <si>
+    <t>UOC749</t>
+  </si>
+  <si>
+    <t>Safwan Mahmood  Othman</t>
+  </si>
+  <si>
+    <t>UOC747</t>
+  </si>
+  <si>
+    <t>G020</t>
+  </si>
+  <si>
+    <t>Chama  Millie Malama</t>
+  </si>
+  <si>
+    <t>Noor Hafifi Bin Noor Hisham</t>
+  </si>
+  <si>
+    <t>Mohana Sundary AP Nadarajan</t>
+  </si>
+  <si>
+    <t>MG304</t>
+  </si>
+  <si>
+    <t>PT215</t>
+  </si>
+  <si>
+    <t>NUR FARHANA MOHD FARID CHAO</t>
+  </si>
+  <si>
+    <t>MG275</t>
+  </si>
+  <si>
+    <t>Boonhou Lee</t>
+  </si>
+  <si>
+    <t>UOC751</t>
+  </si>
+  <si>
+    <t>Kaliswaran Seran</t>
+  </si>
+  <si>
+    <t>Chen Kim Ling</t>
+  </si>
+  <si>
+    <t>PT494</t>
+  </si>
+  <si>
+    <t>PT495</t>
+  </si>
+  <si>
+    <t>PT496</t>
+  </si>
+  <si>
+    <t>PT497</t>
+  </si>
+  <si>
+    <t>Nor Syamiza  Binti Ismail</t>
+  </si>
+  <si>
+    <t>PT498</t>
+  </si>
+  <si>
+    <t>Amrit Kaur Bhajan Singh</t>
+  </si>
+  <si>
+    <t>MG201</t>
+  </si>
+  <si>
+    <t>Kumaran Muniandy</t>
+  </si>
+  <si>
+    <t>UOC727</t>
+  </si>
+  <si>
+    <t>MANIKANDA PACHAMPALAYAM CHOKKAPPAN</t>
+  </si>
+  <si>
+    <t>MG318</t>
+  </si>
+  <si>
+    <t>Muhammad Harraz Amzar Bin Shahrul Kamal</t>
+  </si>
+  <si>
+    <t>MG268</t>
+  </si>
+  <si>
+    <t>Thivya Sahundarajoo</t>
+  </si>
+  <si>
+    <t>MG297</t>
+  </si>
+  <si>
+    <t>Priyashini  Batumalai</t>
+  </si>
+  <si>
+    <t>UOC753d</t>
+  </si>
+  <si>
+    <t>Wafa Azreen Noor Lizan</t>
+  </si>
+  <si>
+    <t>UOC754</t>
+  </si>
+  <si>
+    <t>Syahirah Mohd Hamzah</t>
+  </si>
+  <si>
+    <t>MG312</t>
+  </si>
+  <si>
+    <t>Jaya Priya Ramakrishana Rao</t>
+  </si>
+  <si>
+    <t>UOC753</t>
+  </si>
+  <si>
+    <t>PT981</t>
+  </si>
+  <si>
+    <t>Halimahton Binti Borhan</t>
+  </si>
+  <si>
+    <t>KK0152</t>
+  </si>
+  <si>
+    <t>Giovanna Voo Wan Jun</t>
+  </si>
+  <si>
+    <t>KU0234</t>
+  </si>
+  <si>
+    <t>Louissa Esther Satur binti Maiden</t>
   </si>
 </sst>
 </file>
@@ -7856,13 +8507,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D71D9E8-9AAF-41D1-81CF-DFB87622F15C}">
-  <dimension ref="A1:B1247"/>
+  <dimension ref="A1:B1365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1247"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -7885,87 +8540,87 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -7981,23 +8636,23 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8029,3047 +8684,3047 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B145" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B148" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B164" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B165" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B167" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B169" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B171" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B175" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B176" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B177" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B178" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B179" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B185" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B188" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B189" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B190" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B191" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B193" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B194" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B196" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B197" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B205" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B207" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B208" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B209" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B210" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B211" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B212" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B213" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B214" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B215" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B216" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B218" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B219" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B220" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B221" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B223" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B225" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B226" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B227" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B228" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B229" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B230" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B231" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B233" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B234" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B235" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B236" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B237" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B238" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B239" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B240" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B241" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>478</v>
+        <v>2466</v>
       </c>
       <c r="B242" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B243" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B244" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B245" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B246" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B247" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B248" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B249" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B250" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B251" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B252" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B253" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B254" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B255" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B256" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B257" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B258" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B259" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B260" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B261" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B262" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B263" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>522</v>
+        <v>2467</v>
       </c>
       <c r="B264" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B265" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B266" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B267" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>530</v>
+        <v>2468</v>
       </c>
       <c r="B268" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B269" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B270" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>536</v>
+        <v>2469</v>
       </c>
       <c r="B271" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B272" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B273" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B274" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B275" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B276" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B277" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B278" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B279" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B280" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B281" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B282" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B283" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B284" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B285" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B286" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B287" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B288" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B289" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B290" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B291" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B292" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B293" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B294" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B295" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B296" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B297" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B298" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B299" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B300" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B301" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B302" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B303" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B304" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B305" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B306" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B307" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B308" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B309" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B310" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B311" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B312" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B313" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B314" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B315" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B316" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B317" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B318" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B319" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B320" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B321" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B322" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B323" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B324" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B325" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B326" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B327" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B328" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B329" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B330" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B331" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B332" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B333" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B334" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B335" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B336" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B337" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B338" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B339" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B340" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B341" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B342" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B343" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B344" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B345" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B346" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B347" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B348" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B349" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B350" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B351" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B352" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B353" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B354" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B355" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B356" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B357" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B358" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B359" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B360" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B361" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B362" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B363" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B364" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B365" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B366" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B367" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B368" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B369" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B370" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B371" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B372" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B373" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B374" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B375" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B376" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B377" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B378" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B379" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B380" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B381" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B382" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B383" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B384" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B385" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B386" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B387" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B388" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B389" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B390" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B391" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B392" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B393" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B394" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B395" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B396" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B397" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B398" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B399" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B400" t="s">
-        <v>795</v>
+        <v>228</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B401" t="s">
-        <v>797</v>
+        <v>264</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -11077,31 +11732,31 @@
         <v>798</v>
       </c>
       <c r="B402" t="s">
-        <v>799</v>
+        <v>308</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B403" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B404" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
+        <v>801</v>
+      </c>
+      <c r="B405" t="s">
         <v>802</v>
-      </c>
-      <c r="B405" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -11109,1556 +11764,1556 @@
         <v>803</v>
       </c>
       <c r="B406" t="s">
-        <v>327</v>
+        <v>804</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B407" t="s">
-        <v>365</v>
+        <v>806</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B408" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B409" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B410" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B411" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B412" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B413" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B414" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B415" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B416" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B417" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B418" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B419" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B420" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B421" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B422" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B423" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B424" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B425" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B426" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B427" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B428" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B429" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B430" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B431" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B432" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B433" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B434" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B435" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B436" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B437" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B438" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B439" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B440" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B441" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B442" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B443" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B444" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B445" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B446" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B447" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B448" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B449" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B450" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B451" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B452" t="s">
-        <v>894</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B453" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B454" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B455" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B456" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B457" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B458" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B459" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B460" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B461" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B462" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B463" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B464" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B465" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B466" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B467" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B468" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B469" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B470" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B471" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B472" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B473" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B474" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B475" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B476" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B477" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B478" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B479" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B480" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B481" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B482" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B483" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B484" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B485" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B486" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B487" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B488" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>967</v>
+        <v>2471</v>
       </c>
       <c r="B489" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B490" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B491" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B492" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B493" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B494" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B495" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B496" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B497" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>985</v>
+        <v>2472</v>
       </c>
       <c r="B498" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B499" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B500" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B501" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B502" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>995</v>
+        <v>2473</v>
       </c>
       <c r="B503" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B504" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B505" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>1001</v>
+        <v>2474</v>
       </c>
       <c r="B506" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B507" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B508" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B509" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B510" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B511" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B512" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B513" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B514" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B515" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B516" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B517" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B518" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B519" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B520" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B521" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B522" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1035</v>
+        <v>2475</v>
       </c>
       <c r="B523" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B524" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B525" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B526" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1043</v>
+        <v>2476</v>
       </c>
       <c r="B527" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B528" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B529" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B530" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B531" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B532" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B533" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B534" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B535" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B536" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B537" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B538" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B539" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B540" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B541" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B542" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B543" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B544" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B545" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B546" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B547" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B548" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B549" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B550" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B551" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B552" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B553" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B554" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B555" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B556" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B557" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B558" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B559" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B560" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B561" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B562" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B563" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B564" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B565" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B566" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B567" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B568" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B569" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B570" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B571" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B572" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B573" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B574" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B575" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B576" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B577" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B578" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B579" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B580" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B581" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B582" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B583" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B584" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B585" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B586" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B587" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B588" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B589" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B590" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B591" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B592" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B593" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B594" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B595" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B596" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B597" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B598" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B599" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1189</v>
+        <v>2477</v>
       </c>
       <c r="B600" t="s">
         <v>1190</v>
@@ -12885,31 +13540,31 @@
         <v>1245</v>
       </c>
       <c r="B628" t="s">
-        <v>1246</v>
+        <v>888</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B629" t="s">
         <v>1247</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B630" t="s">
         <v>1249</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B631" t="s">
         <v>1251</v>
-      </c>
-      <c r="B631" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -13066,7 +13721,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1290</v>
+        <v>2478</v>
       </c>
       <c r="B651" t="s">
         <v>1291</v>
@@ -13269,31 +13924,31 @@
         <v>1340</v>
       </c>
       <c r="B676" t="s">
-        <v>1341</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B677" t="s">
         <v>1342</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B678" t="s">
         <v>1344</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B679" t="s">
         <v>1346</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.3">
@@ -13317,31 +13972,31 @@
         <v>1351</v>
       </c>
       <c r="B682" t="s">
-        <v>1352</v>
+        <v>775</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B683" t="s">
         <v>1353</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B684" t="s">
         <v>1355</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B685" t="s">
         <v>1357</v>
-      </c>
-      <c r="B685" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
@@ -15309,31 +15964,31 @@
         <v>1848</v>
       </c>
       <c r="B931" t="s">
-        <v>1849</v>
+        <v>897</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B932" t="s">
         <v>1850</v>
-      </c>
-      <c r="B932" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B933" t="s">
         <v>1852</v>
-      </c>
-      <c r="B933" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B934" t="s">
         <v>1854</v>
-      </c>
-      <c r="B934" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
@@ -15373,31 +16028,31 @@
         <v>1863</v>
       </c>
       <c r="B939" t="s">
-        <v>1864</v>
+        <v>140</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B940" t="s">
         <v>1865</v>
-      </c>
-      <c r="B940" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B941" t="s">
         <v>1867</v>
-      </c>
-      <c r="B941" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B942" t="s">
         <v>1869</v>
-      </c>
-      <c r="B942" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
@@ -15493,31 +16148,31 @@
         <v>1892</v>
       </c>
       <c r="B954" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B955" t="s">
         <v>1894</v>
-      </c>
-      <c r="B955" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B956" t="s">
         <v>1896</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B957" t="s">
         <v>1898</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1893</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
@@ -15789,39 +16444,39 @@
         <v>1965</v>
       </c>
       <c r="B991" t="s">
-        <v>1966</v>
+        <v>528</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B992" t="s">
-        <v>1968</v>
+        <v>785</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B993" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B994" t="s">
-        <v>531</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B995" t="s">
         <v>1972</v>
-      </c>
-      <c r="B995" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
@@ -17341,31 +17996,31 @@
         <v>2351</v>
       </c>
       <c r="B1185" t="s">
-        <v>2352</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1186" t="s">
         <v>2353</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>2354</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1187" t="s">
         <v>2355</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>2356</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1188" t="s">
         <v>2357</v>
-      </c>
-      <c r="B1188" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
@@ -17397,47 +18052,47 @@
         <v>2364</v>
       </c>
       <c r="B1192" t="s">
-        <v>2365</v>
+        <v>564</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B1193" t="s">
         <v>2366</v>
-      </c>
-      <c r="B1193" t="s">
-        <v>2367</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1194" t="s">
-        <v>2369</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B1195" t="s">
-        <v>567</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B1196" t="s">
         <v>2371</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B1197" t="s">
         <v>2373</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
@@ -17509,31 +18164,31 @@
         <v>2390</v>
       </c>
       <c r="B1206" t="s">
-        <v>2391</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1207" t="s">
         <v>2392</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1208" t="s">
         <v>2394</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1209" t="s">
         <v>2396</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
@@ -17698,146 +18353,1090 @@
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B1230" t="s">
         <v>2437</v>
-      </c>
-      <c r="B1230" t="s">
-        <v>2438</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B1231" t="s">
         <v>2439</v>
-      </c>
-      <c r="B1231" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1232" t="s">
         <v>2441</v>
-      </c>
-      <c r="B1232" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1233" t="s">
         <v>2443</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B1234" t="s">
         <v>2445</v>
-      </c>
-      <c r="B1234" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1235" t="s">
         <v>2447</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1236" t="s">
         <v>2449</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1237" t="s">
         <v>2451</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B1238" t="s">
         <v>2453</v>
-      </c>
-      <c r="B1238" t="s">
-        <v>2454</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B1239" t="s">
         <v>2455</v>
-      </c>
-      <c r="B1239" t="s">
-        <v>2456</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1240" t="s">
         <v>2457</v>
-      </c>
-      <c r="B1240" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1241" t="s">
         <v>2459</v>
-      </c>
-      <c r="B1241" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1242" t="s">
         <v>2461</v>
-      </c>
-      <c r="B1242" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1243" t="s">
         <v>2463</v>
-      </c>
-      <c r="B1243" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1244" t="s">
         <v>2465</v>
-      </c>
-      <c r="B1244" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>2467</v>
+        <v>2480</v>
       </c>
       <c r="B1245" t="s">
-        <v>2468</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>2469</v>
+        <v>2482</v>
       </c>
       <c r="B1246" t="s">
-        <v>2470</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>2471</v>
+        <v>2484</v>
       </c>
       <c r="B1247" t="s">
-        <v>2472</v>
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1248" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1249" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1250" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1251" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1252" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>968</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1292" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1293" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1294" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1295" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1296" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1297" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1298" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1299" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1300" t="s">
+        <v>996</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1301" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1302" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1303" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1312" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1313" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1314" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1315" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1316" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1317" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1318" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1319" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1320" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1321" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1322" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1323" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1324" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1325" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1326" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1327" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1328" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1329" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1330" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1331" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1332" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1333" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1334" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1335" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1336" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1337" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1338" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1339" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1340" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1341" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1342" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1343" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1344" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1345" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1346" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1347" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1348" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1349" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1350" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1353" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1354" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1355" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1356" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1357" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1358" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1359" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1360" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1361" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1362" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1363" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1364" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1365" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2689</v>
       </c>
     </row>
   </sheetData>
